--- a/tide/src/main/resources/Testdata/logindata.xlsx
+++ b/tide/src/main/resources/Testdata/logindata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1082777\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1082777\git\Bddframeworktide\tide\src\main\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7D6648-3BE8-41B4-B63E-6CF04CA32BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFDA8F2-2E67-4AE4-9DA0-DE7742BB08BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{CEDE001C-A938-4CE7-88E3-BBF58DB8D5EE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Abcd@123</t>
+    <t>Tide@5035</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
